--- a/src/main/webapp/ch07/kcity/Routing.xlsx
+++ b/src/main/webapp/ch07/kcity/Routing.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
